--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -102,6 +102,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -120,15 +129,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -155,11 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -438,10 +438,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -456,8 +456,8 @@
     <col width="14.25" customWidth="1" style="1" min="9" max="9"/>
     <col width="43.5" customWidth="1" style="1" min="10" max="10"/>
     <col width="38.375" customWidth="1" style="1" min="11" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="12" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -578,15 +578,15 @@
           <t>{"ret": 1, "msg": "用户名或者密码错误"}</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
+      <c r="L2" s="7" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="3" ht="57" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="7" t="n"/>
+      <c r="A3" s="8" t="n"/>
+      <c r="B3" s="8" t="n"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>API_LOGIN_002</t>
@@ -632,7 +632,7 @@
           <t>{"ret": 0}</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr">
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -692,10 +692,64 @@
         </is>
       </c>
     </row>
+    <row r="5" ht="57" customHeight="1">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="9" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>API_LOGIN_004</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>登录测试-错误演示1</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1/api/mgr/signin</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"username": "byhy11", "password": "88888888"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>{"ret": 1, "msg": "用户名错误"}</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation sqref="L1:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="测试结果"/>

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -1,56 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79289\Desktop\api_autotest\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2167EA4-56FE-4BF1-A8DA-AE9CAE370CE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>用例编号*</t>
+  </si>
+  <si>
+    <t>用例名称*</t>
+  </si>
+  <si>
+    <t>请求URL*</t>
+  </si>
+  <si>
+    <t>请求类型*</t>
+  </si>
+  <si>
+    <t>请求头*</t>
+  </si>
+  <si>
+    <t>请求参数类型*</t>
+  </si>
+  <si>
+    <t>请求参数位置*</t>
+  </si>
+  <si>
+    <t>请求参数*</t>
+  </si>
+  <si>
+    <t>预期结果*</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>测试系统</t>
+  </si>
+  <si>
+    <t>登录API</t>
+  </si>
+  <si>
+    <t>API_LOGIN_001</t>
+  </si>
+  <si>
+    <t>登录测试-错误密码</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/api/mgr/signin</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+  </si>
+  <si>
+    <t>x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>{"username": "byhy", "password": "12345678"}</t>
+  </si>
+  <si>
+    <t>{"ret": 1, "msg": "用户名或者密码错误"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>API_LOGIN_002</t>
+  </si>
+  <si>
+    <t>登录测试-正确登录</t>
+  </si>
+  <si>
+    <t>{"username": "byhy", "password": "88888888"}</t>
+  </si>
+  <si>
+    <t>{"ret": 0}</t>
+  </si>
+  <si>
+    <t>API_LOGIN_003</t>
+  </si>
+  <si>
+    <t>登录测试-错误演示</t>
+  </si>
+  <si>
+    <t>{"username": "byhy1", "password": "88888888"}</t>
+  </si>
+  <si>
+    <t>{"ret": 1, "msg": "用户名错误"}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>API_LOGIN_004</t>
+  </si>
+  <si>
+    <t>{"username": "byhy11", "password": "88888888"}</t>
+  </si>
+  <si>
+    <t>列出客户API</t>
+  </si>
+  <si>
+    <t>API_LIST_CUSTOMER</t>
+  </si>
+  <si>
+    <t>列出客户信息测试</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1/api/mgr/customers</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>{"action": "list_customer", "pagesize": 1, "pagenum": 1}</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>添加客户API</t>
+  </si>
+  <si>
+    <t>API_ADD_CUSTOMER_001</t>
+  </si>
+  <si>
+    <t>添加客户信息测试</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{
+    "action":"add_customer",
+    "data":{
+        "name":"武汉市桥西医院",
+        "phonenumber":"13345679934",
+        "address":"武汉市桥西医院北路"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "ret": 0,
+    "id" : 677
+}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -66,12 +239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007FFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF3030"/>
+        <fgColor rgb="FFDCDCDC"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,15 +270,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -131,43 +290,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -433,337 +621,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.5" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9" customWidth="1" style="1" min="5" max="6"/>
-    <col width="18.75" customWidth="1" style="1" min="7" max="7"/>
-    <col width="14.5" customWidth="1" style="1" min="8" max="8"/>
-    <col width="14.25" customWidth="1" style="1" min="9" max="9"/>
-    <col width="43.5" customWidth="1" style="1" min="10" max="10"/>
-    <col width="38.375" customWidth="1" style="1" min="11" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="17"/>
-    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
+    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="43.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>系统</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>接口名称</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>用例编号*</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>用例名称*</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>请求URL*</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>请求类型*</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>请求头*</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>请求参数类型*</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>请求参数位置*</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>请求参数*</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>预期结果*</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>测试结果</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" ht="57" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>测试系统</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>登录API</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>API_LOGIN_001</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>登录测试-错误密码</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1/api/mgr/signin</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>x-www-form-urlencoded</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>{"username": "byhy", "password": "12345678"}</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>{"ret": 1, "msg": "用户名或者密码错误"}</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+    <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" ht="57" customHeight="1">
-      <c r="A3" s="8" t="n"/>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>API_LOGIN_002</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>登录测试-正确登录</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1/api/mgr/signin</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>x-www-form-urlencoded</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>{"username": "byhy", "password": "88888888"}</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>{"ret": 0}</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+    <row r="3" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>API_LOGIN_003</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>登录测试-错误演示</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1/api/mgr/signin</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>x-www-form-urlencoded</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>{"username": "byhy1", "password": "88888888"}</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>{"ret": 1, "msg": "用户名错误"}</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
+    <row r="4" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" ht="57" customHeight="1">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>API_LOGIN_004</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>登录测试-错误演示1</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1/api/mgr/signin</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>x-www-form-urlencoded</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>{"username": "byhy11", "password": "88888888"}</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>{"ret": 1, "msg": "用户名错误"}</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
+    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation sqref="L1:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="测试结果"/>
-    <dataValidation sqref="I1:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="测试结果" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"body, url"</formula1>
     </dataValidation>
-    <dataValidation sqref="F1:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"POST, GET, DELETE, PUT"</formula1>
     </dataValidation>
-    <dataValidation sqref="H1:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"x-www-form-urlencoded, application/json"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>